--- a/umit_files/umit_nem.xlsx
+++ b/umit_files/umit_nem.xlsx
@@ -21,10 +21,12 @@
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -260,11 +262,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTRANGE(""https://docs.google.com/spreadsheets/d/1KS_-c4wXGae_DJoI15LsIkbF4Ndo5XAd1RY-qwmWizU/edit?usp=sharing"",""УМИТЫ!A:Z"")"),"Фонетика и произношение")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTRANGE(""https://docs.google.com/spreadsheets/d/1vcysYQh9uibZniaT4617AYL_UbO4kOCHhM2ZlIAD_Dg/edit"",""УМИТЫ!A:Z"")"),"Фонетика и произношение")</f>
         <v>Фонетика и произношение</v>
       </c>
       <c r="B1" s="1"/>

--- a/umit_files/umit_nem.xlsx
+++ b/umit_files/umit_nem.xlsx
@@ -650,8 +650,14 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+      <c r="A5" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Временное значение предлогов")</f>
+        <v>Временное значение предлогов</v>
+      </c>
+      <c r="B5" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4.0)</f>
+        <v>4</v>
+      </c>
       <c r="C5" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Местоимения как замена артикля")</f>
         <v>Местоимения как замена артикля</v>
@@ -732,8 +738,14 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+      <c r="A6" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Даты, года")</f>
+        <v>Даты, года</v>
+      </c>
+      <c r="B6" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5.0)</f>
+        <v>5</v>
+      </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="str">
@@ -802,8 +814,14 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+      <c r="A7" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Время")</f>
+        <v>Время</v>
+      </c>
+      <c r="B7" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6.0)</f>
+        <v>6</v>
+      </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="str">
@@ -866,8 +884,14 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+      <c r="A8" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Парные союзы")</f>
+        <v>Парные союзы</v>
+      </c>
+      <c r="B8" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.0)</f>
+        <v>7</v>
+      </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="str">
@@ -930,8 +954,14 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+      <c r="A9" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Несклоняемые прилагательные")</f>
+        <v>Несклоняемые прилагательные</v>
+      </c>
+      <c r="B9" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.0)</f>
+        <v>8</v>
+      </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>

--- a/umit_files/umit_nem.xlsx
+++ b/umit_files/umit_nem.xlsx
@@ -349,12 +349,12 @@
         <v>101</v>
       </c>
       <c r="E2" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Единственное число")</f>
-        <v>Единственное число</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сильное склонение существительных")</f>
+        <v>Сильное склонение существительных</v>
       </c>
       <c r="F2" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),201.0)</f>
-        <v>201</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),203.0)</f>
+        <v>203</v>
       </c>
       <c r="G2" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Молодёжь и хобби")</f>
@@ -381,20 +381,20 @@
         <v>501</v>
       </c>
       <c r="M2" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Простое нерастпространённое предложение")</f>
-        <v>Простое нерастпространённое предложение</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сложносочинённые бессоюзные предложения")</f>
+        <v>Сложносочинённые бессоюзные предложения</v>
       </c>
       <c r="N2" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),601.0)</f>
-        <v>601</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),602.0)</f>
+        <v>602</v>
       </c>
       <c r="O2" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Полнозначные глаголы")</f>
-        <v>Полнозначные глаголы</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Partizip")</f>
+        <v>Partizip</v>
       </c>
       <c r="P2" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),701.0)</f>
-        <v>701</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),712.0)</f>
+        <v>712</v>
       </c>
       <c r="Q2" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Количественные числительные")</f>
@@ -421,8 +421,8 @@
         <v>1001</v>
       </c>
       <c r="W2" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Безаффиксное")</f>
-        <v>Безаффиксное</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Словообразование существительных")</f>
+        <v>Словообразование существительных</v>
       </c>
       <c r="X2" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1101.0)</f>
@@ -455,12 +455,12 @@
         <v>102</v>
       </c>
       <c r="E3" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Множественное число")</f>
-        <v>Множественное число</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Слабое склонение существительных")</f>
+        <v>Слабое склонение существительных</v>
       </c>
       <c r="F3" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),202.0)</f>
-        <v>202</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),204.0)</f>
+        <v>204</v>
       </c>
       <c r="G3" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Повседневная жизнь")</f>
@@ -487,20 +487,20 @@
         <v>502</v>
       </c>
       <c r="M3" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сложносочинённые бессоюзные предложения")</f>
-        <v>Сложносочинённые бессоюзные предложения</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Прямой порядок слов")</f>
+        <v>Прямой порядок слов</v>
       </c>
       <c r="N3" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),602.0)</f>
-        <v>602</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),605.0)</f>
+        <v>605</v>
       </c>
       <c r="O3" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Глаголы-связки")</f>
-        <v>Глаголы-связки</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Konjunktiv")</f>
+        <v>Konjunktiv</v>
       </c>
       <c r="P3" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),702.0)</f>
-        <v>702</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),714.0)</f>
+        <v>714</v>
       </c>
       <c r="Q3" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Порядковые числительные")</f>
@@ -527,8 +527,8 @@
         <v>1002</v>
       </c>
       <c r="W3" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Префиксальное и суффиксальное")</f>
-        <v>Префиксальное и суффиксальное</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Словообразование глаголов")</f>
+        <v>Словообразование глаголов</v>
       </c>
       <c r="X3" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1102.0)</f>
@@ -561,12 +561,12 @@
         <v>103</v>
       </c>
       <c r="E4" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сильное склонение существительных")</f>
-        <v>Сильное склонение существительных</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Женское склонение существительных")</f>
+        <v>Женское склонение существительных</v>
       </c>
       <c r="F4" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),203.0)</f>
-        <v>203</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),205.0)</f>
+        <v>205</v>
       </c>
       <c r="G4" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Город и деревня")</f>
@@ -593,20 +593,20 @@
         <v>503</v>
       </c>
       <c r="M4" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сложносочинённые союзные предложения")</f>
-        <v>Сложносочинённые союзные предложения</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Обратный порядок слов")</f>
+        <v>Обратный порядок слов</v>
       </c>
       <c r="N4" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),603.0)</f>
-        <v>603</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),606.0)</f>
+        <v>606</v>
       </c>
       <c r="O4" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Модальные глаголы")</f>
-        <v>Модальные глаголы</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Imperativ")</f>
+        <v>Imperativ</v>
       </c>
       <c r="P4" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),703.0)</f>
-        <v>703</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),715.0)</f>
+        <v>715</v>
       </c>
       <c r="Q4" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Дробные числительные")</f>
@@ -633,8 +633,8 @@
         <v>1003</v>
       </c>
       <c r="W4" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Словосложение")</f>
-        <v>Словосложение</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Словообразование прилагательных и наречий")</f>
+        <v>Словообразование прилагательных и наречий</v>
       </c>
       <c r="X4" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1103.0)</f>
@@ -658,21 +658,15 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4.0)</f>
         <v>4</v>
       </c>
-      <c r="C5" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Местоимения как замена артикля")</f>
-        <v>Местоимения как замена артикля</v>
-      </c>
-      <c r="D5" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),104.0)</f>
-        <v>104</v>
-      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
       <c r="E5" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Слабое склонение существительных")</f>
-        <v>Слабое склонение существительных</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Смешанное склонение существительных")</f>
+        <v>Смешанное склонение существительных</v>
       </c>
       <c r="F5" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),204.0)</f>
-        <v>204</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),206.0)</f>
+        <v>206</v>
       </c>
       <c r="G5" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Семья, дружба")</f>
@@ -699,25 +693,37 @@
         <v>504</v>
       </c>
       <c r="M5" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сложноподчинённые предложения")</f>
-        <v>Сложноподчинённые предложения</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Порядок слов в придаточных предложениях")</f>
+        <v>Порядок слов в придаточных предложениях</v>
       </c>
       <c r="N5" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),604.0)</f>
-        <v>604</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),607.0)</f>
+        <v>607</v>
       </c>
       <c r="O5" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Вспомогательные глаголы")</f>
-        <v>Вспомогательные глаголы</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Präsens")</f>
+        <v>Präsens</v>
       </c>
       <c r="P5" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),704.0)</f>
-        <v>704</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),716.0)</f>
+        <v>716</v>
       </c>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
+      <c r="Q5" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Время")</f>
+        <v>Время</v>
+      </c>
+      <c r="R5" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),804.0)</f>
+        <v>804</v>
+      </c>
+      <c r="S5" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Парные союзы")</f>
+        <v>Парные союзы</v>
+      </c>
+      <c r="T5" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),904.0)</f>
+        <v>904</v>
+      </c>
       <c r="U5" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Степени сравнения")</f>
         <v>Степени сравнения</v>
@@ -749,12 +755,12 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Женское склонение существительных")</f>
-        <v>Женское склонение существительных</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Склонение существительных во множественном числе")</f>
+        <v>Склонение существительных во множественном числе</v>
       </c>
       <c r="F6" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),205.0)</f>
-        <v>205</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),207.0)</f>
+        <v>207</v>
       </c>
       <c r="G6" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Здоровье и медицина")</f>
@@ -764,8 +770,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),305.0)</f>
         <v>305</v>
       </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="I6" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Временное значение предлогов")</f>
+        <v>Временное значение предлогов</v>
+      </c>
+      <c r="J6" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),405.0)</f>
+        <v>405</v>
+      </c>
       <c r="K6" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Относительные местоимения")</f>
         <v>Относительные местоимения</v>
@@ -775,23 +787,29 @@
         <v>505</v>
       </c>
       <c r="M6" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Прямой порядок слов")</f>
-        <v>Прямой порядок слов</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Порядок слов в вопросительных предложениях")</f>
+        <v>Порядок слов в вопросительных предложениях</v>
       </c>
       <c r="N6" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),605.0)</f>
-        <v>605</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),608.0)</f>
+        <v>608</v>
       </c>
       <c r="O6" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Переходные глаголы")</f>
-        <v>Переходные глаголы</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Präteritum")</f>
+        <v>Präteritum</v>
       </c>
       <c r="P6" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),705.0)</f>
-        <v>705</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),717.0)</f>
+        <v>717</v>
       </c>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
+      <c r="Q6" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Даты, года")</f>
+        <v>Даты, года</v>
+      </c>
+      <c r="R6" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),805.0)</f>
+        <v>805</v>
+      </c>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1" t="str">
@@ -824,14 +842,8 @@
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Смешанное склонение существительных")</f>
-        <v>Смешанное склонение существительных</v>
-      </c>
-      <c r="F7" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),206.0)</f>
-        <v>206</v>
-      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
       <c r="G7" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Родина и страны изучаемого языка")</f>
         <v>Родина и страны изучаемого языка</v>
@@ -851,27 +863,33 @@
         <v>506</v>
       </c>
       <c r="M7" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Обратный порядок слов")</f>
-        <v>Обратный порядок слов</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Порядок слов в отрицательных предложениях")</f>
+        <v>Порядок слов в отрицательных предложениях</v>
       </c>
       <c r="N7" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),606.0)</f>
-        <v>606</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),609.0)</f>
+        <v>609</v>
       </c>
       <c r="O7" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Непереходные глаголы")</f>
-        <v>Непереходные глаголы</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Perfekt")</f>
+        <v>Perfekt</v>
       </c>
       <c r="P7" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),706.0)</f>
-        <v>706</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),718.0)</f>
+        <v>718</v>
       </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
+      <c r="U7" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Несклоняемые прилагательные")</f>
+        <v>Несклоняемые прилагательные</v>
+      </c>
+      <c r="V7" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1006.0)</f>
+        <v>1006</v>
+      </c>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
       <c r="Y7" s="1" t="str">
@@ -894,14 +912,8 @@
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Склонение существительных во множественном числе")</f>
-        <v>Склонение существительных во множественном числе</v>
-      </c>
-      <c r="F8" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),207.0)</f>
-        <v>207</v>
-      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
       <c r="G8" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Путешествия")</f>
         <v>Путешествия</v>
@@ -921,20 +933,20 @@
         <v>507</v>
       </c>
       <c r="M8" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Порядок слов в придаточных предложениях")</f>
-        <v>Порядок слов в придаточных предложениях</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Порядок слов в предложениях с повелительным наклонением")</f>
+        <v>Порядок слов в предложениях с повелительным наклонением</v>
       </c>
       <c r="N8" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),607.0)</f>
-        <v>607</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),610.0)</f>
+        <v>610</v>
       </c>
       <c r="O8" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Возвратные глаголы")</f>
-        <v>Возвратные глаголы</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Plusquamperfekt")</f>
+        <v>Plusquamperfekt</v>
       </c>
       <c r="P8" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),707.0)</f>
-        <v>707</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),719.0)</f>
+        <v>719</v>
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -985,20 +997,20 @@
         <v>508</v>
       </c>
       <c r="M9" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Порядок слов в вопросительных предложениях")</f>
-        <v>Порядок слов в вопросительных предложениях</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Знаки препинания в немецком языке")</f>
+        <v>Знаки препинания в немецком языке</v>
       </c>
       <c r="N9" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),608.0)</f>
-        <v>608</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),611.0)</f>
+        <v>611</v>
       </c>
       <c r="O9" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Слабые глаголы")</f>
-        <v>Слабые глаголы</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Futur (1, 2)")</f>
+        <v>Futur (1, 2)</v>
       </c>
       <c r="P9" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),708.0)</f>
-        <v>708</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),720.0)</f>
+        <v>720</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -1042,21 +1054,15 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),509.0)</f>
         <v>509</v>
       </c>
-      <c r="M10" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Порядок слов в отрицательных предложениях")</f>
-        <v>Порядок слов в отрицательных предложениях</v>
-      </c>
-      <c r="N10" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),609.0)</f>
-        <v>609</v>
-      </c>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
       <c r="O10" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сильные глаголы")</f>
-        <v>Сильные глаголы</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Управление глаголов")</f>
+        <v>Управление глаголов</v>
       </c>
       <c r="P10" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),709.0)</f>
-        <v>709</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),721.0)</f>
+        <v>721</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -1094,21 +1100,15 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Порядок слов в предложениях с повелительным наклонением")</f>
-        <v>Порядок слов в предложениях с повелительным наклонением</v>
-      </c>
-      <c r="N11" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),610.0)</f>
-        <v>610</v>
-      </c>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
       <c r="O11" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Неправильные глаголы")</f>
-        <v>Неправильные глаголы</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Passiv")</f>
+        <v>Passiv</v>
       </c>
       <c r="P11" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),710.0)</f>
-        <v>710</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),722.0)</f>
+        <v>722</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -1146,21 +1146,15 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Знаки препинания в немецком языке")</f>
-        <v>Знаки препинания в немецком языке</v>
-      </c>
-      <c r="N12" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),611.0)</f>
-        <v>611</v>
-      </c>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
       <c r="O12" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Infinitiv")</f>
-        <v>Infinitiv</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Инфинитивный оборот")</f>
+        <v>Инфинитивный оборот</v>
       </c>
       <c r="P12" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),711.0)</f>
-        <v>711</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),723.0)</f>
+        <v>723</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -1198,22 +1192,10 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Инфинитивный оборот")</f>
-        <v>Инфинитивный оборот</v>
-      </c>
-      <c r="N13" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),612.0)</f>
-        <v>612</v>
-      </c>
-      <c r="O13" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Partizip")</f>
-        <v>Partizip</v>
-      </c>
-      <c r="P13" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),712.0)</f>
-        <v>712</v>
-      </c>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
@@ -1252,14 +1234,8 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
-      <c r="O14" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Indikativ")</f>
-        <v>Indikativ</v>
-      </c>
-      <c r="P14" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),713.0)</f>
-        <v>713</v>
-      </c>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
@@ -1298,14 +1274,8 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
-      <c r="O15" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Konjunktiv")</f>
-        <v>Konjunktiv</v>
-      </c>
-      <c r="P15" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),714.0)</f>
-        <v>714</v>
-      </c>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
@@ -1338,14 +1308,8 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
-      <c r="O16" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Imperativ")</f>
-        <v>Imperativ</v>
-      </c>
-      <c r="P16" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),715.0)</f>
-        <v>715</v>
-      </c>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
@@ -1378,14 +1342,8 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
-      <c r="O17" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Präsens")</f>
-        <v>Präsens</v>
-      </c>
-      <c r="P17" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),716.0)</f>
-        <v>716</v>
-      </c>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
@@ -1412,14 +1370,8 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
-      <c r="O18" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Präteritum")</f>
-        <v>Präteritum</v>
-      </c>
-      <c r="P18" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),717.0)</f>
-        <v>717</v>
-      </c>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
@@ -1446,14 +1398,8 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
-      <c r="O19" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Perfekt")</f>
-        <v>Perfekt</v>
-      </c>
-      <c r="P19" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),718.0)</f>
-        <v>718</v>
-      </c>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
@@ -1480,14 +1426,8 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
-      <c r="O20" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Plusquamperfekt")</f>
-        <v>Plusquamperfekt</v>
-      </c>
-      <c r="P20" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),719.0)</f>
-        <v>719</v>
-      </c>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
@@ -1514,14 +1454,8 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
-      <c r="O21" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Futur (1, 2)")</f>
-        <v>Futur (1, 2)</v>
-      </c>
-      <c r="P21" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),720.0)</f>
-        <v>720</v>
-      </c>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
@@ -1548,14 +1482,8 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
-      <c r="O22" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Управление глаголов")</f>
-        <v>Управление глаголов</v>
-      </c>
-      <c r="P22" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),721.0)</f>
-        <v>721</v>
-      </c>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
@@ -1582,14 +1510,8 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
-      <c r="O23" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Passiv")</f>
-        <v>Passiv</v>
-      </c>
-      <c r="P23" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),722.0)</f>
-        <v>722</v>
-      </c>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
